--- a/data_pulling/team_game_logs_1819/team_game_log_ORL.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_ORL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -295,6 +295,9 @@
     <t>PHX</t>
   </si>
   <si>
+    <t>DAL</t>
+  </si>
+  <si>
     <t>2018-10-17T23:00:00.000Z</t>
   </si>
   <si>
@@ -371,6 +374,9 @@
   </si>
   <si>
     <t>2018-12-08T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-11T01:30:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV27"/>
+  <dimension ref="A1:BV28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,7 +975,7 @@
         <v>47575</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -1193,7 +1199,7 @@
         <v>47586</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -1417,7 +1423,7 @@
         <v>47598</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -1641,7 +1647,7 @@
         <v>47609</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1865,7 +1871,7 @@
         <v>47633</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -2089,7 +2095,7 @@
         <v>47650</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2313,7 +2319,7 @@
         <v>47667</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -2537,7 +2543,7 @@
         <v>47686</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2761,7 +2767,7 @@
         <v>47705</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -2985,7 +2991,7 @@
         <v>47711</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3209,7 +3215,7 @@
         <v>47723</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -3433,7 +3439,7 @@
         <v>47736</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3657,7 +3663,7 @@
         <v>47755</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -3881,7 +3887,7 @@
         <v>47759</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -4105,7 +4111,7 @@
         <v>47771</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4329,7 +4335,7 @@
         <v>47796</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4553,7 +4559,7 @@
         <v>47805</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -4777,7 +4783,7 @@
         <v>47817</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -5001,7 +5007,7 @@
         <v>47845</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -5225,7 +5231,7 @@
         <v>47855</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -5449,7 +5455,7 @@
         <v>47869</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -5673,7 +5679,7 @@
         <v>47883</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -5897,7 +5903,7 @@
         <v>47896</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -6121,7 +6127,7 @@
         <v>47920</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -6345,7 +6351,7 @@
         <v>47925</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -6569,16 +6575,16 @@
         <v>47939</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F27">
         <v>7</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -6692,10 +6698,10 @@
         <v>18</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AV27">
         <v>18</v>
@@ -6716,10 +6722,10 @@
         <v>18</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BD27">
         <v>18</v>
@@ -6776,6 +6782,230 @@
         <v>75</v>
       </c>
       <c r="BV27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28">
+        <v>47966</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>101</v>
+      </c>
+      <c r="K28">
+        <v>101</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>15</v>
+      </c>
+      <c r="P28">
+        <v>61</v>
+      </c>
+      <c r="Q28">
+        <v>61</v>
+      </c>
+      <c r="R28">
+        <v>24</v>
+      </c>
+      <c r="S28">
+        <v>24</v>
+      </c>
+      <c r="T28">
+        <v>39.3</v>
+      </c>
+      <c r="U28">
+        <v>28</v>
+      </c>
+      <c r="V28">
+        <v>28</v>
+      </c>
+      <c r="W28">
+        <v>8</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>28.6</v>
+      </c>
+      <c r="Z28">
+        <v>89</v>
+      </c>
+      <c r="AA28">
+        <v>89</v>
+      </c>
+      <c r="AB28">
+        <v>32</v>
+      </c>
+      <c r="AC28">
+        <v>32</v>
+      </c>
+      <c r="AD28">
+        <v>36</v>
+      </c>
+      <c r="AE28">
+        <v>5</v>
+      </c>
+      <c r="AF28">
+        <v>5</v>
+      </c>
+      <c r="AG28">
+        <v>4</v>
+      </c>
+      <c r="AH28">
+        <v>4</v>
+      </c>
+      <c r="AI28">
+        <v>80</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>18</v>
+      </c>
+      <c r="AT28">
+        <v>11</v>
+      </c>
+      <c r="AU28">
+        <v>11</v>
+      </c>
+      <c r="AV28">
+        <v>18</v>
+      </c>
+      <c r="AW28">
+        <v>18</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>18</v>
+      </c>
+      <c r="BB28">
+        <v>11</v>
+      </c>
+      <c r="BC28">
+        <v>11</v>
+      </c>
+      <c r="BD28">
+        <v>18</v>
+      </c>
+      <c r="BE28">
+        <v>-25</v>
+      </c>
+      <c r="BF28">
+        <v>-25</v>
+      </c>
+      <c r="BG28">
+        <v>18</v>
+      </c>
+      <c r="BH28">
+        <v>18</v>
+      </c>
+      <c r="BI28">
+        <v>76</v>
+      </c>
+      <c r="BJ28">
+        <v>76</v>
+      </c>
+      <c r="BK28">
+        <v>36</v>
+      </c>
+      <c r="BL28">
+        <v>36</v>
+      </c>
+      <c r="BM28">
+        <v>7</v>
+      </c>
+      <c r="BN28">
+        <v>7</v>
+      </c>
+      <c r="BO28">
+        <v>43</v>
+      </c>
+      <c r="BP28">
+        <v>43</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>1</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV28">
         <v>95</v>
       </c>
     </row>
